--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Civil Service Form No. 48</t>
   </si>
   <si>
-    <t>ODI,CHARLES ADRIAN TAMIS</t>
+    <t>FERRER,CHRISTIAN PAUL V.</t>
   </si>
   <si>
     <t>For the Month of June 2020</t>
@@ -68,111 +68,6 @@
   </si>
   <si>
     <t>Minutes</t>
-  </si>
-  <si>
-    <t>June 01, 2020</t>
-  </si>
-  <si>
-    <t>June 02, 2020</t>
-  </si>
-  <si>
-    <t>June 03, 2020</t>
-  </si>
-  <si>
-    <t>June 04, 2020</t>
-  </si>
-  <si>
-    <t>June 05, 2020</t>
-  </si>
-  <si>
-    <t>05:11 PM</t>
-  </si>
-  <si>
-    <t>June 06, 2020</t>
-  </si>
-  <si>
-    <t>June 07, 2020</t>
-  </si>
-  <si>
-    <t>June 08, 2020</t>
-  </si>
-  <si>
-    <t>June 09, 2020</t>
-  </si>
-  <si>
-    <t>June 10, 2020</t>
-  </si>
-  <si>
-    <t>June 11, 2020</t>
-  </si>
-  <si>
-    <t>June 12, 2020</t>
-  </si>
-  <si>
-    <t>June 13, 2020</t>
-  </si>
-  <si>
-    <t>June 14, 2020</t>
-  </si>
-  <si>
-    <t>June 15, 2020</t>
-  </si>
-  <si>
-    <t>June 16, 2020</t>
-  </si>
-  <si>
-    <t>June 17, 2020</t>
-  </si>
-  <si>
-    <t>June 18, 2020</t>
-  </si>
-  <si>
-    <t>June 19, 2020</t>
-  </si>
-  <si>
-    <t>June 20, 2020</t>
-  </si>
-  <si>
-    <t>June 21, 2020</t>
-  </si>
-  <si>
-    <t>June 22, 2020</t>
-  </si>
-  <si>
-    <t>June 23, 2020</t>
-  </si>
-  <si>
-    <t>June 24, 2020</t>
-  </si>
-  <si>
-    <t>June 25, 2020</t>
-  </si>
-  <si>
-    <t>June 26, 2020</t>
-  </si>
-  <si>
-    <t>June 27, 2020</t>
-  </si>
-  <si>
-    <t>June 28, 2020</t>
-  </si>
-  <si>
-    <t>June 29, 2020</t>
-  </si>
-  <si>
-    <t>June 30, 2020</t>
-  </si>
-  <si>
-    <t>I certify on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office</t>
-  </si>
-  <si>
-    <t>VERIFIED as to the prescribed office hours:</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
-    <t>In Charge</t>
   </si>
 </sst>
 </file>
@@ -180,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -199,15 +94,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -223,7 +109,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -239,16 +125,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -274,6 +155,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -295,21 +179,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -614,7 +483,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -629,46 +498,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" customHeight="1" ht="30">
       <c r="A5" s="1" t="s">
@@ -682,15 +551,15 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
@@ -702,17 +571,17 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -721,11 +590,11 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -737,24 +606,24 @@
       <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -774,337 +643,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="7"/>
@@ -1125,9 +671,7 @@
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="A46" s="8"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1136,38 +680,25 @@
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8"/>
+      <c r="A47" s="9"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="A48" s="9"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="8"/>
-      <c r="C52" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8"/>
-      <c r="C53" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1184,10 +715,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.70866141732283" right="0.70866141732283" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>

--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Civil Service Form No. 48</t>
   </si>
   <si>
-    <t>FERRER,CHRISTIAN PAUL V.</t>
+    <t>ODI,CHARLES ADRIAN TAMIS</t>
   </si>
   <si>
     <t>For the Month of June 2020</t>
@@ -68,6 +68,141 @@
   </si>
   <si>
     <t>Minutes</t>
+  </si>
+  <si>
+    <t>June 01, 2020</t>
+  </si>
+  <si>
+    <t>09:25 AM</t>
+  </si>
+  <si>
+    <t>12:32 PM</t>
+  </si>
+  <si>
+    <t>12:33 PM</t>
+  </si>
+  <si>
+    <t>05:33 PM</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>June 02, 2020</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>12:40 PM</t>
+  </si>
+  <si>
+    <t>05:00 PM</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>June 03, 2020</t>
+  </si>
+  <si>
+    <t>June 04, 2020</t>
+  </si>
+  <si>
+    <t>June 05, 2020</t>
+  </si>
+  <si>
+    <t>June 06, 2020</t>
+  </si>
+  <si>
+    <t>June 07, 2020</t>
+  </si>
+  <si>
+    <t>June 08, 2020</t>
+  </si>
+  <si>
+    <t>12:00 AM</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>June 09, 2020</t>
+  </si>
+  <si>
+    <t>June 10, 2020</t>
+  </si>
+  <si>
+    <t>June 11, 2020</t>
+  </si>
+  <si>
+    <t>June 12, 2020</t>
+  </si>
+  <si>
+    <t>June 13, 2020</t>
+  </si>
+  <si>
+    <t>June 14, 2020</t>
+  </si>
+  <si>
+    <t>June 15, 2020</t>
+  </si>
+  <si>
+    <t>June 16, 2020</t>
+  </si>
+  <si>
+    <t>June 17, 2020</t>
+  </si>
+  <si>
+    <t>June 18, 2020</t>
+  </si>
+  <si>
+    <t>June 19, 2020</t>
+  </si>
+  <si>
+    <t>June 20, 2020</t>
+  </si>
+  <si>
+    <t>June 21, 2020</t>
+  </si>
+  <si>
+    <t>June 22, 2020</t>
+  </si>
+  <si>
+    <t>June 23, 2020</t>
+  </si>
+  <si>
+    <t>June 24, 2020</t>
+  </si>
+  <si>
+    <t>June 25, 2020</t>
+  </si>
+  <si>
+    <t>June 26, 2020</t>
+  </si>
+  <si>
+    <t>June 27, 2020</t>
+  </si>
+  <si>
+    <t>June 28, 2020</t>
+  </si>
+  <si>
+    <t>June 29, 2020</t>
+  </si>
+  <si>
+    <t>June 30, 2020</t>
+  </si>
+  <si>
+    <t>I certify on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office</t>
+  </si>
+  <si>
+    <t>VERIFIED as to the prescribed office hours:</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>In Charge</t>
   </si>
 </sst>
 </file>
@@ -75,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -94,6 +229,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -109,7 +253,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -125,11 +269,16 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -155,9 +304,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -179,6 +325,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -483,7 +644,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -498,46 +659,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" customHeight="1" ht="30">
       <c r="A5" s="1" t="s">
@@ -551,15 +712,15 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
@@ -571,17 +732,17 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -590,11 +751,11 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -606,24 +767,24 @@
       <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -643,14 +804,363 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="A43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="7"/>
@@ -670,8 +1180,10 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:7" customHeight="1" ht="30">
+      <c r="A46" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -680,25 +1192,38 @@
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
+      <c r="A50" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="C52" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="C53" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -715,6 +1240,10 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.70866141732283" right="0.70866141732283" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>

--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
@@ -73,109 +73,163 @@
     <t>June 01, 2020</t>
   </si>
   <si>
-    <t>09:25 AM</t>
-  </si>
-  <si>
-    <t>12:32 PM</t>
-  </si>
-  <si>
-    <t>12:33 PM</t>
-  </si>
-  <si>
-    <t>05:33 PM</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>June 02, 2020</t>
   </si>
   <si>
-    <t>12:00 PM</t>
+    <t>June 03, 2020</t>
+  </si>
+  <si>
+    <t>June 04, 2020</t>
+  </si>
+  <si>
+    <t>June 05, 2020</t>
+  </si>
+  <si>
+    <t>June 06, 2020</t>
+  </si>
+  <si>
+    <t>June 07, 2020</t>
+  </si>
+  <si>
+    <t>June 08, 2020</t>
+  </si>
+  <si>
+    <t>June 09, 2020</t>
+  </si>
+  <si>
+    <t>June 10, 2020</t>
+  </si>
+  <si>
+    <t>June 11, 2020</t>
+  </si>
+  <si>
+    <t>June 12, 2020</t>
+  </si>
+  <si>
+    <t>June 13, 2020</t>
+  </si>
+  <si>
+    <t>June 14, 2020</t>
+  </si>
+  <si>
+    <t>June 15, 2020</t>
+  </si>
+  <si>
+    <t>08:00 AM</t>
+  </si>
+  <si>
+    <t>12:50 PM</t>
+  </si>
+  <si>
+    <t>05:00 PM</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>June 16, 2020</t>
+  </si>
+  <si>
+    <t>07:40 AM</t>
+  </si>
+  <si>
+    <t>12:20 PM</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>June 17, 2020</t>
+  </si>
+  <si>
+    <t>08:30 AM</t>
+  </si>
+  <si>
+    <t>12:12 PM</t>
+  </si>
+  <si>
+    <t>12:15 PM</t>
+  </si>
+  <si>
+    <t>05:50 PM</t>
+  </si>
+  <si>
+    <t>June 18, 2020</t>
+  </si>
+  <si>
+    <t>09:00 AM</t>
+  </si>
+  <si>
+    <t>12:55 PM</t>
+  </si>
+  <si>
+    <t>12:56 PM</t>
+  </si>
+  <si>
+    <t>06:00 PM</t>
+  </si>
+  <si>
+    <t>June 19, 2020</t>
+  </si>
+  <si>
+    <t>12:01 PM</t>
+  </si>
+  <si>
+    <t>12:02 PM</t>
+  </si>
+  <si>
+    <t>05:30 PM</t>
+  </si>
+  <si>
+    <t>June 20, 2020</t>
+  </si>
+  <si>
+    <t>June 21, 2020</t>
+  </si>
+  <si>
+    <t>June 22, 2020</t>
+  </si>
+  <si>
+    <t>08:10 AM</t>
   </si>
   <si>
     <t>12:40 PM</t>
   </si>
   <si>
-    <t>05:00 PM</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>June 03, 2020</t>
-  </si>
-  <si>
-    <t>June 04, 2020</t>
-  </si>
-  <si>
-    <t>June 05, 2020</t>
-  </si>
-  <si>
-    <t>June 06, 2020</t>
-  </si>
-  <si>
-    <t>June 07, 2020</t>
-  </si>
-  <si>
-    <t>June 08, 2020</t>
-  </si>
-  <si>
-    <t>12:00 AM</t>
-  </si>
-  <si>
-    <t>12:30 PM</t>
-  </si>
-  <si>
-    <t>June 09, 2020</t>
-  </si>
-  <si>
-    <t>June 10, 2020</t>
-  </si>
-  <si>
-    <t>June 11, 2020</t>
-  </si>
-  <si>
-    <t>June 12, 2020</t>
-  </si>
-  <si>
-    <t>June 13, 2020</t>
-  </si>
-  <si>
-    <t>June 14, 2020</t>
-  </si>
-  <si>
-    <t>June 15, 2020</t>
-  </si>
-  <si>
-    <t>June 16, 2020</t>
-  </si>
-  <si>
-    <t>June 17, 2020</t>
-  </si>
-  <si>
-    <t>June 18, 2020</t>
-  </si>
-  <si>
-    <t>June 19, 2020</t>
-  </si>
-  <si>
-    <t>June 20, 2020</t>
-  </si>
-  <si>
-    <t>June 21, 2020</t>
-  </si>
-  <si>
-    <t>June 22, 2020</t>
+    <t>12:41 PM</t>
+  </si>
+  <si>
+    <t>05:13 PM</t>
   </si>
   <si>
     <t>June 23, 2020</t>
   </si>
   <si>
+    <t>08:25 AM</t>
+  </si>
+  <si>
+    <t>12:34 PM</t>
+  </si>
+  <si>
+    <t>06:08 PM</t>
+  </si>
+  <si>
     <t>June 24, 2020</t>
   </si>
   <si>
+    <t>07:41 AM</t>
+  </si>
+  <si>
+    <t>12:51 PM</t>
+  </si>
+  <si>
     <t>June 25, 2020</t>
+  </si>
+  <si>
+    <t>09:14 AM</t>
+  </si>
+  <si>
+    <t>06:26 PM</t>
   </si>
   <si>
     <t>June 26, 2020</t>
@@ -808,51 +862,27 @@
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="6">
-        <v>26</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -863,7 +893,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -874,7 +904,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -885,7 +915,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -896,7 +926,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -907,14 +937,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -922,7 +948,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -933,7 +959,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -944,7 +970,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -955,7 +981,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -966,7 +992,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -977,7 +1003,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -988,34 +1014,62 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
@@ -1023,27 +1077,51 @@
       <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1054,7 +1132,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1065,51 +1143,81 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1120,7 +1228,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1131,7 +1239,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1142,7 +1250,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1153,7 +1261,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="17" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -1182,7 +1290,7 @@
     </row>
     <row r="46" spans="1:7" customHeight="1" ht="30">
       <c r="A46" s="18" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1205,7 +1313,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="19" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1214,7 +1322,7 @@
     <row r="52" spans="1:7">
       <c r="A52" s="8"/>
       <c r="C52" s="20" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -1222,7 +1330,7 @@
     <row r="53" spans="1:7">
       <c r="A53" s="8"/>
       <c r="C53" s="5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
@@ -124,9 +124,6 @@
     <t>05:00 PM</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
     <t>June 16, 2020</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>VERIFIED as to the prescribed office hours:</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>In Charge</t>
@@ -361,6 +355,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -370,15 +373,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -713,46 +707,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" customHeight="1" ht="30">
       <c r="A5" s="1" t="s">
@@ -766,15 +760,15 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
@@ -786,17 +780,17 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -805,11 +799,11 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -821,24 +815,24 @@
       <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1028,25 +1022,21 @@
       <c r="E28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>34</v>
@@ -1056,72 +1046,64 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1132,7 +1114,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1143,54 +1125,56 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1198,26 +1182,24 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1228,7 +1210,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1239,7 +1221,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1250,7 +1232,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1261,7 +1243,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -1290,7 +1272,7 @@
     </row>
     <row r="46" spans="1:7" customHeight="1" ht="30">
       <c r="A46" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1313,7 +1295,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1321,26 +1303,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8"/>
-      <c r="C52" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C52" s="20"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8"/>
       <c r="C53" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
@@ -1348,6 +1323,11 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C52:E52"/>

--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
@@ -34,7 +34,7 @@
     <t>ODI,CHARLES ADRIAN TAMIS</t>
   </si>
   <si>
-    <t>For the Month of June 2020</t>
+    <t>For the Month of July 2020</t>
   </si>
   <si>
     <t>Regular Days ______________</t>
@@ -70,178 +70,181 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>June 01, 2020</t>
-  </si>
-  <si>
-    <t>June 02, 2020</t>
-  </si>
-  <si>
-    <t>June 03, 2020</t>
-  </si>
-  <si>
-    <t>June 04, 2020</t>
-  </si>
-  <si>
-    <t>June 05, 2020</t>
-  </si>
-  <si>
-    <t>June 06, 2020</t>
-  </si>
-  <si>
-    <t>June 07, 2020</t>
-  </si>
-  <si>
-    <t>June 08, 2020</t>
-  </si>
-  <si>
-    <t>June 09, 2020</t>
-  </si>
-  <si>
-    <t>June 10, 2020</t>
-  </si>
-  <si>
-    <t>June 11, 2020</t>
-  </si>
-  <si>
-    <t>June 12, 2020</t>
-  </si>
-  <si>
-    <t>June 13, 2020</t>
-  </si>
-  <si>
-    <t>June 14, 2020</t>
-  </si>
-  <si>
-    <t>June 15, 2020</t>
-  </si>
-  <si>
-    <t>08:00 AM</t>
+    <t>July 01, 2020</t>
+  </si>
+  <si>
+    <t>07:45 AM</t>
+  </si>
+  <si>
+    <t>12:10 PM</t>
+  </si>
+  <si>
+    <t>05:05 PM</t>
+  </si>
+  <si>
+    <t>July 02, 2020</t>
+  </si>
+  <si>
+    <t>09:00 AM</t>
+  </si>
+  <si>
+    <t>12:33 PM</t>
+  </si>
+  <si>
+    <t>07:07 PM</t>
+  </si>
+  <si>
+    <t>July 03, 2020</t>
+  </si>
+  <si>
+    <t>08:30 AM</t>
+  </si>
+  <si>
+    <t>12:05 PM</t>
+  </si>
+  <si>
+    <t>12:07 PM</t>
+  </si>
+  <si>
+    <t>05:40 PM</t>
+  </si>
+  <si>
+    <t>July 04, 2020</t>
+  </si>
+  <si>
+    <t>July 05, 2020</t>
+  </si>
+  <si>
+    <t>July 06, 2020</t>
+  </si>
+  <si>
+    <t>07:44 AM</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>12:01 PM</t>
+  </si>
+  <si>
+    <t>05:50 PM</t>
+  </si>
+  <si>
+    <t>July 07, 2020</t>
+  </si>
+  <si>
+    <t>08:28 AM</t>
+  </si>
+  <si>
+    <t>12:14 PM</t>
+  </si>
+  <si>
+    <t>05:30 PM</t>
+  </si>
+  <si>
+    <t>July 08, 2020</t>
+  </si>
+  <si>
+    <t>08:09 AM</t>
+  </si>
+  <si>
+    <t>12:25 PM</t>
+  </si>
+  <si>
+    <t>12:26 PM</t>
+  </si>
+  <si>
+    <t>06:04 PM</t>
+  </si>
+  <si>
+    <t>July 09, 2020</t>
+  </si>
+  <si>
+    <t>08:08 AM</t>
+  </si>
+  <si>
+    <t>12:13 PM</t>
+  </si>
+  <si>
+    <t>05:15 PM</t>
+  </si>
+  <si>
+    <t>July 10, 2020</t>
+  </si>
+  <si>
+    <t>08:31 AM</t>
   </si>
   <si>
     <t>12:50 PM</t>
   </si>
   <si>
-    <t>05:00 PM</t>
-  </si>
-  <si>
-    <t>June 16, 2020</t>
-  </si>
-  <si>
-    <t>07:40 AM</t>
-  </si>
-  <si>
-    <t>12:20 PM</t>
-  </si>
-  <si>
-    <t>12:30 PM</t>
-  </si>
-  <si>
-    <t>June 17, 2020</t>
-  </si>
-  <si>
-    <t>08:30 AM</t>
-  </si>
-  <si>
-    <t>12:12 PM</t>
-  </si>
-  <si>
-    <t>12:15 PM</t>
-  </si>
-  <si>
-    <t>05:50 PM</t>
-  </si>
-  <si>
-    <t>June 18, 2020</t>
-  </si>
-  <si>
-    <t>09:00 AM</t>
-  </si>
-  <si>
-    <t>12:55 PM</t>
-  </si>
-  <si>
-    <t>12:56 PM</t>
-  </si>
-  <si>
-    <t>06:00 PM</t>
-  </si>
-  <si>
-    <t>June 19, 2020</t>
-  </si>
-  <si>
-    <t>12:01 PM</t>
-  </si>
-  <si>
-    <t>12:02 PM</t>
-  </si>
-  <si>
-    <t>05:30 PM</t>
-  </si>
-  <si>
-    <t>June 20, 2020</t>
-  </si>
-  <si>
-    <t>June 21, 2020</t>
-  </si>
-  <si>
-    <t>June 22, 2020</t>
-  </si>
-  <si>
-    <t>08:10 AM</t>
-  </si>
-  <si>
-    <t>12:40 PM</t>
-  </si>
-  <si>
-    <t>12:41 PM</t>
-  </si>
-  <si>
-    <t>05:13 PM</t>
-  </si>
-  <si>
-    <t>June 23, 2020</t>
-  </si>
-  <si>
-    <t>08:25 AM</t>
-  </si>
-  <si>
-    <t>12:34 PM</t>
-  </si>
-  <si>
-    <t>06:08 PM</t>
-  </si>
-  <si>
-    <t>June 24, 2020</t>
-  </si>
-  <si>
-    <t>07:41 AM</t>
-  </si>
-  <si>
-    <t>12:51 PM</t>
-  </si>
-  <si>
-    <t>June 25, 2020</t>
-  </si>
-  <si>
-    <t>09:14 AM</t>
-  </si>
-  <si>
-    <t>06:26 PM</t>
-  </si>
-  <si>
-    <t>June 26, 2020</t>
-  </si>
-  <si>
-    <t>June 27, 2020</t>
-  </si>
-  <si>
-    <t>June 28, 2020</t>
-  </si>
-  <si>
-    <t>June 29, 2020</t>
-  </si>
-  <si>
-    <t>June 30, 2020</t>
+    <t>05:32 PM</t>
+  </si>
+  <si>
+    <t>July 11, 2020</t>
+  </si>
+  <si>
+    <t>July 12, 2020</t>
+  </si>
+  <si>
+    <t>July 13, 2020</t>
+  </si>
+  <si>
+    <t>07:51 AM</t>
+  </si>
+  <si>
+    <t>July 14, 2020</t>
+  </si>
+  <si>
+    <t>July 15, 2020</t>
+  </si>
+  <si>
+    <t>July 16, 2020</t>
+  </si>
+  <si>
+    <t>July 17, 2020</t>
+  </si>
+  <si>
+    <t>July 18, 2020</t>
+  </si>
+  <si>
+    <t>July 19, 2020</t>
+  </si>
+  <si>
+    <t>July 20, 2020</t>
+  </si>
+  <si>
+    <t>July 21, 2020</t>
+  </si>
+  <si>
+    <t>July 22, 2020</t>
+  </si>
+  <si>
+    <t>July 23, 2020</t>
+  </si>
+  <si>
+    <t>July 24, 2020</t>
+  </si>
+  <si>
+    <t>July 25, 2020</t>
+  </si>
+  <si>
+    <t>July 26, 2020</t>
+  </si>
+  <si>
+    <t>July 27, 2020</t>
+  </si>
+  <si>
+    <t>July 28, 2020</t>
+  </si>
+  <si>
+    <t>July 29, 2020</t>
+  </si>
+  <si>
+    <t>July 30, 2020</t>
+  </si>
+  <si>
+    <t>July 31, 2020</t>
   </si>
   <si>
     <t>I certify on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office</t>
@@ -326,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -352,6 +355,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -382,7 +388,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -689,10 +695,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -707,46 +713,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" customHeight="1" ht="30">
       <c r="A5" s="1" t="s">
@@ -760,15 +766,15 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
@@ -780,17 +786,17 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -799,11 +805,11 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -815,24 +821,24 @@
       <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -856,38 +862,62 @@
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -898,7 +928,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -909,62 +939,102 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -975,7 +1045,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -986,9 +1056,11 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -997,7 +1069,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1008,102 +1080,62 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1114,7 +1146,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1125,77 +1157,47 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6">
-        <v>10</v>
-      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6">
-        <v>14</v>
-      </c>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
@@ -1242,24 +1244,26 @@
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="A44" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="7"/>
@@ -1270,10 +1274,8 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" customHeight="1" ht="30">
-      <c r="A46" s="18" t="s">
-        <v>75</v>
-      </c>
+    <row r="46" spans="1:7">
+      <c r="A46" s="8"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1281,36 +1283,40 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="8"/>
+    <row r="47" spans="1:7" customHeight="1" ht="30">
+      <c r="A47" s="19" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="A48" s="9"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="8"/>
+      <c r="A51" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="8"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8"/>
-      <c r="C53" s="5" t="s">
-        <v>77</v>
+      <c r="A53" s="9"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="C54" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1334,10 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="C49:E49"/>
     <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.70866141732283" right="0.70866141732283" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
